--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/9_Ardahan_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/9_Ardahan_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF636E2-0C6E-4A00-BEE7-6579CD5EA421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E7ACC39-EE5C-4CA0-9361-429A4BCE9C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{2939284A-4645-4D67-AC41-AF3912CB1B78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{5297080A-958E-4A96-A88E-7F517D98EAD7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -936,15 +936,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B7BA0434-4C0A-484F-ADA7-22C7B573C4CE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EC80CDA1-E9F8-4C4C-A601-A1E19520FB25}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{953D4DDB-5C95-4E8E-B6BA-35649A661345}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{DD72B4F3-0741-4439-9EA5-7640CD7860CC}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{6318E50F-45FB-4C4E-A592-EF483E2178FB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{4D59A474-1C8F-4DE7-B9F4-7CD367DA7665}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{FC1741A9-5769-4812-A58D-421679D84CA1}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{4B27579A-F5F9-4F52-B085-6DA7447B37D2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{4D0F9767-7760-4D13-9349-271B1FC4C604}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A48AF1BD-5072-46DC-A0D5-6953EA618D0F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2CE78205-9F8D-43A5-9FC2-D8F38DCFA42B}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{5E26EA66-3EE1-47BB-9829-4A3BF5D03D68}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{383E42CE-E9BB-40FF-8BE4-2329C460C12B}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{7BCAC981-054D-4544-B01B-912F2D81E81B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{465C1078-1350-4DFC-B837-EDB6EACD5A68}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{5561D952-BA11-4D83-AEA8-D08C7B697024}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{B5767FEE-9438-4684-98D9-26DD418F692B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{CE03F3AD-C6AC-4BE3-A05A-DCE9916C364B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643F6BD6-6C59-488E-BCAF-0F3EA9AC6395}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B44D28D-9162-4C12-9A7A-41B356B45331}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2604,18 +2604,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA7CAA1D-1124-4F00-A463-8DC6787BEBC7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA05A0FB-AA93-41D6-83C4-7F8FC360288B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{33F871E0-B745-4DC9-BDF0-4843DEAF323B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE4FB82B-8BFC-49B5-960E-759653D8E0DA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6E2EC4ED-6589-4F36-98AB-0332012B05EE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C32DAA66-3CC6-478E-90A8-B98EA880F097}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{806698ED-ED00-4D22-9F57-8C023833417D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{676F7C9C-2BA4-45F0-A968-860CE6435881}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0DF99A80-9C5B-42CE-B5D7-4C691F01793A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D33D17FB-8DE8-4BA1-B1C3-445F616FCDC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD440A44-C282-4D90-ACF8-6202923F3B30}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53F8230A-8AAC-4A63-8FA4-F847F24BB7AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67646923-E13F-409F-99B3-CD043650CE09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E74E0CD-5D08-415D-9F54-10A103F4C6BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA507DB9-1B53-4831-A9E9-457087B4F6F6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{07FC8033-9432-4A15-9152-79DF2332EA43}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6EAD7FAD-633E-4BB9-BDB5-142FEAF27559}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E2991F3-8F4C-46FE-AF0C-2F92534A0560}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA463A84-5654-4E76-92D6-AD08868C5E33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABBCDCDC-1EAE-4A24-B04F-4193824CB098}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9D0FF2B-72B9-47C0-BDCD-19CEB5D5DEC7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB843D7D-E120-4F36-8F1A-EAE4BFDC0DE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6940E3B-B4D7-4DAF-9DA4-2477F3E61336}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49741A9C-D2FB-4816-9FEC-E616A4B97EEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2628,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B7CF37-A7C1-46B5-9079-D4ECC6ABFA15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED4159-2C53-4977-838E-4561D4B932F6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3893,18 +3893,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C647AA04-A156-4490-80C4-DDECC9F1D080}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8FF82DD-466C-44D4-9155-E74178D2FC1B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D73A2724-DFA7-40E2-A2E9-F547D53ED591}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CA0CDDF-8ECD-46B6-8862-1F012EE49556}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AB9D9200-4E3E-4BE2-8E39-3C761F888453}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA15851F-92CF-4461-9659-23F2A54C6943}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DAF0BDD-3C5A-4A87-AA3E-5FC71C6081C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AF555FA-DDEC-4840-A477-4ADEE1716F7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DE05C81-F06B-4CA0-9129-03450E94C24C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9CA3DD44-8F57-4DB5-9EAC-91735565658C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18DA5FEC-C6E9-431F-BC13-860E81B16A79}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE762884-9A5E-4F3B-8E5C-FF4893628F56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{523EB113-080A-425B-9CFA-FB7B07566E26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C35C659A-55F2-4ABF-B3A6-DBE3AD405349}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44EDE2EA-1AD6-457F-B01F-771F06E21254}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF00D7F8-DE5D-445A-BE55-B18947B36DE5}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7CC82664-66CE-4421-BEA8-90A6F82B207A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{572FAAD8-7CC2-4180-87FA-D0014FEB81BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72660A62-52AB-4613-90FF-BD3B993CB105}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D703D41F-7A28-4A36-9001-3976D982FFF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B0B623D-44FA-44EF-8C94-B01B994936B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3833C56-3EAC-4F20-9E46-4283246AF9B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC96145B-7703-45B9-9E68-6E5317C4235D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7243908-96FB-4BD4-8A8E-83DA568EA827}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F5037-079C-4812-97BD-A850FB83FEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB8B903-B88C-4DFA-AAF6-1E60B62C27AE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5180,18 +5180,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44B4FB4C-2559-418F-9FD8-AD03C709B15E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B9A03BC-4337-40B1-827F-9B827BCFE382}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4C12BED-1FAC-4155-B4BE-3EB8E7F68934}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80AABA3B-36CB-429F-A0DD-C821B506DF2A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9AD829BA-B6B0-4313-99B2-7C11159138BD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC0A5FFB-309A-444A-B101-CF804E56BE01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A4D304B-DE9F-455A-97B7-8D04AE9F6BB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D97BFD1-A4CB-45BA-9BBE-784D65DA0379}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{710432B0-DF2A-424A-AB23-9B1599B36D29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83DDDC8B-9DB9-45CF-A41E-E3F523360720}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD91BD1E-AC70-4115-A8D2-C2E827EC2A41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B98EF4F-0C81-4E3C-B410-4B9FCFFE4E98}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D789721-BD9F-4EE1-A528-607C9BD4E9FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5B4FFBC-2E34-405A-B821-AF7A4EF2C58C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7EC17CA8-43CC-4567-BAD8-3645286A899A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{587B60CE-08A3-4D72-8312-A4495C5EE64D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B29385B4-0D7F-4E7C-A2D0-2C3340B662FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10802076-6FF4-4C84-B722-016424FEA79A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40193379-F63E-41A2-B134-78E544DD5C06}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF31A60B-88DD-41DB-AD74-BEB78E18DAC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBDE21A3-64DA-43DE-B8C4-5334CF960412}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DF8A0C1-C175-4922-B34B-CDCFF6D522E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87024A6C-5F0A-4491-AF0A-5C5814ADA5F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5CFA383-DBCE-407C-BF03-20EAB17BB72E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5204,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8C69D0-042F-4CBB-9175-EF1D99D92D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884482D-0255-4D4E-92F2-35523F1CEDE7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6447,18 +6447,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FCBD6E5-F81B-4F11-A87B-A8D2F68A4E0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{500CEF3B-C29D-43B2-A2DF-73CE5B553C73}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{142E1F47-ABE8-463B-81E5-844B9BF90FDA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7E4809D-873B-4689-B98C-7B642D13323A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{78060BBA-D08A-43D7-8703-D7BCAC94E0DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBDA1220-FBEF-451E-A394-59B1FFFC2EB0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{067CAE6C-B5A6-4A61-A0F3-4D7EEC953BE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FAF08ED-254A-488E-B6E4-97AD8824D3EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF32C88A-87B1-4478-8D1D-F3BB9E600109}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C7497A8-BD0A-446B-9568-CEDC4744B8EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2833A702-11B7-4E5E-B22A-4691E93938AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BD05744-433A-44F5-92EE-5F47AB13BD5E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2236C4B2-F627-4B92-A66B-C7008F9E94C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77F2238B-E0B9-431C-AB12-99AEC62889FD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4AAD6DB3-1DE3-4DD2-B80F-3E7065F9ED6E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDCAA13A-ABD4-4402-9BE0-577ED5A94D79}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4A8F1033-4AE7-4626-A2A3-A514566DF72F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40812CF7-FF5C-49CE-B280-97B0909B57F5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFA61B94-DF71-44BD-8A36-99DEA2C19D08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8943476B-AFBD-4418-B4E0-D676A65E12B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE331C35-178D-45C9-8E2D-7BEF1FEB1B06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{966BA7DA-F03E-44A1-988A-936BA5E96567}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13CE698A-0095-4B4E-AE31-00997B5148D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E5FBA72-09FE-482B-BBAA-E8071D53CAE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6471,7 +6471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D5BDAC-DA91-413C-A30A-A109FA62E2EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727FABDB-F0BA-4C31-9DF9-B2B90E16B36E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7758,18 +7758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{249B6840-256D-474E-8267-95C6ADBEE28D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14418965-71B9-496C-9F78-E28706F689EF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2BE4E1D-F6ED-48F3-BD8C-2F878BCEDBA2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57D9778E-01EC-40AE-AC25-1495D691C884}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{84F80005-64F8-4387-9F0D-C841C7F8DD40}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B23342E-B9C7-4816-8806-C2939FBA4B91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5475430E-C887-4D8B-898C-A8C855B1ACB6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AEA60D1-87E1-4F49-8291-1AB19FCF8198}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CFBF62F-1C3B-4D93-B48E-9EA2A5C9FECE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB2E516B-B860-4D00-BCF8-0547DA8E95F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FA02660-D714-4C92-B95B-76A557EAEE58}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C933A875-7F2F-447C-8286-E67F8FF5476C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AB8BC5C-C37D-43DE-9EE0-EA59472B6186}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B3D0BAF-6EB8-4A8A-B6B5-1EAA619B28D1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DCABB84-57EC-411E-8F60-663F6F2D9266}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F09F1A9D-D348-4027-9F74-9DC4D489CF5A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{12F33FA3-758D-4640-B90C-3C94B92F2ED6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BE95A36-03CD-4A8F-B726-4C7EA7283B95}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E0BC2EF-287E-4BD4-B0AF-6DB1C2081401}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EC2BF64-4F46-4BD2-A76F-EB7171CA3F6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00A5044A-4184-45EC-8BD5-D243A57913A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{472C5C25-E350-48B9-B777-8F997505C061}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E972ED92-FF43-4B3E-B095-846DBF153EBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C075ACFE-35A8-42E0-851A-3453CB6C40D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7782,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D2D9A8-92D0-437E-8193-B3219AAB68DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12E14E3-D059-4046-819B-1D064B791C4D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9069,18 +9069,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B55A335C-1FEC-48BA-A653-77777872B7B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DA9DDC0-B3E9-4B48-80F9-18B10E4A704E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34876321-BD80-424A-9BF5-EFB31BE97F6C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E042AB45-319F-4C06-8FCE-C22140AFFD22}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F56F8B0E-B0F1-4CB7-9AE4-CA1997626F39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5508FA8D-6B6C-4F88-80B9-401269B36866}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21D8F79F-3C4E-434A-BCF1-9B816045D15D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E8593CF-C4ED-402D-A526-8B5A2D32FD3A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E911AFC2-C02E-4425-8064-D3A1E2BE0871}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5146D603-8589-4D12-BCCA-9E3E4B99C23C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B214F9B6-297D-4443-9564-81CF4FCE572C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{171275A6-6DC4-43FE-99E6-BC53E455B0A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7031CD81-0C9E-4226-B6CE-FD8C4E643C71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{282C5D3E-6F3A-4E4E-B9BC-4EAC29FC7102}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE820D28-B193-4236-81AE-7686AA6C8DBB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB052145-B054-4B5D-B7BA-CA4C1A40B26D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0D37C07D-4FDE-45E5-B891-83B265610288}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9285579-4E68-4C52-B727-56CA57D3F50B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EC2B433-7A1C-42AC-976E-909BE0A22DCD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82E4857F-507F-4C31-978A-EE92B3CBD920}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{202FEC09-6A7B-4A29-BB65-1B7114F362E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE5BED9A-A901-4DF7-82A9-124A88BE7CEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{647989E2-A587-46B8-BD90-2490D9C1FD9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73C87C1F-28F3-40CD-8B0A-D68F13B395F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9093,7 +9093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9C75F1-70F1-4488-B885-44EE9C6D95F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4384AC-938B-4653-A3D4-9D078F9B3B9C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10380,18 +10380,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AD8C78A-635C-4101-B8E0-76C227D2283C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE3DA3C2-0ADA-4170-93E2-1A4089E32F6F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B3C3DE9-9746-4707-BAA1-7A677709CA04}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{037338FE-A4B0-45A0-80C2-0598930C813B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7BF27262-B1CF-4432-B04A-866E995F94A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B3469CE-E731-464B-9B10-B6EC692545E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C68DF2F7-87DB-4D3F-AC73-0A1CAA17817D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C83141FB-AACE-45C3-AC79-B9A852989B66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{078E375A-3C49-4671-A6D4-E7AFB76BDB7A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F9005E0-2A56-4983-AF3A-9F8608F2962C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{095CB27E-A822-4989-B1B7-5F802AAEB896}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F2256E7-7456-44A2-B256-0E8AA01856A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8487ABA8-8C35-4F52-AE07-BC6BFEF8399E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40E6511F-AF35-45AE-B099-A4035053B7DF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CEB0DC61-06CC-4162-856C-B0DD56F38A30}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{392A0C1F-57AB-40CA-8C1F-599B78C76271}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CF4E0716-4DF4-44F8-866B-9F3E966219E3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4AE550A3-E9A1-4E17-A91F-14109AC0DA19}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AD71C9C-B1A8-44FA-9D92-4DB206FEDAB5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{841D3038-FF26-440F-B8AC-96D440D186C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5ACFE33-41E7-44BD-9ADA-C6F6CC87787E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7EBE0420-00DE-4037-A860-F660B8699045}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB781D59-9E8F-4686-8932-8B008C8EA9E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3D10D13-6B14-4906-8A70-4A0512668025}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10404,7 +10404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32001CEF-BE5F-4BCF-B9CB-2BEC70EA5F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31C6589-B3BC-46DF-B2D0-2B9A7E66B77A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11689,18 +11689,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6C9CD70-1C0D-45FE-AF52-3F5F5F933DE9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{191ACB7F-E5B4-4936-8CDB-21A429EB9785}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{351561F9-8961-4C96-B16C-DDF031489C11}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15E20449-4D24-49F4-96AA-A3ACD766ADD0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9A34B108-1ECA-4A7C-A252-2749FD4C6C60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D38C3F00-C139-4FBC-B619-B435BAB83E22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52599EF4-1660-462C-8C05-4B7B3355B685}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E614CF45-01BF-4FF1-9ACB-38A3DD651701}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3D230C3-9407-4DC6-B45E-C481D0D4755D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB995455-93BF-4F12-8FB2-CA3E12046C16}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87B9734C-A0B2-4839-AD1F-1EB799E8CF2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D40CA7CA-4088-48E2-B73D-FD3C707F8209}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C662420-D065-48ED-A5B2-20F16032939A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C17637CD-C33F-47EE-B9B7-E2DFAADFEBB6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D177957E-0325-4EBA-BC01-1818CD0F5C8B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A600C16-A92D-4578-938B-AC0F1A6D164E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B8B7AFDD-FCCE-4BE9-805C-74510E252AFD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{761172E2-668B-4251-989D-F45300EEC29F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1DCE331-1792-4C54-ACF6-90AA468371E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4B88C1D-2B7B-425B-B467-2E6316907563}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{846F893D-8EC7-45CC-9EA5-4F1397C3DA54}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{399AD61E-C616-434B-8F4B-D55685BEB062}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71B4B4FF-163E-47B2-A7A0-07B110EE5E32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2495A476-66CF-4429-A8BA-E24F837A4B6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11713,7 +11713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69BF9A4-3406-4D83-AA98-DEA424F4F326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D29815-1B4D-48BE-AC7A-104C2EE359CB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12998,18 +12998,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8520C133-A1C8-4BE6-8D5F-90E8FDD71C70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76351C9F-D67B-4DCA-BA5A-BCB603DDA135}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB1B4944-BDCF-4670-8F29-E232DE8C32A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02A10F8B-B3AA-4E71-8EA8-F4967126F86E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A5E83C0D-D0A0-4717-8BCF-3BF94F1F4416}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E77A75F-E042-4D6E-91FB-532C8A004DC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25C01AB3-C077-476B-A970-158B37CFEA20}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E89BF7A2-B4B5-414D-A4D7-0FDAECD2D549}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54D1E40F-B408-4C05-84E2-DFFC6A936813}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99214CA8-A415-4B8D-8455-11302B7ACE8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDEBAD68-1671-419A-8FBA-EAB0AE15A871}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{941F83D1-8D77-459E-ACF6-CF3544B2F7ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{555D8C39-F14D-4B99-87F8-0F7B9CB42501}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1DEEDD6-95E1-4458-A2BD-6D0E77352A5E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0DAAB7A5-5B78-4511-BCC6-2786A298F163}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE3CDA0D-7F7E-4D29-A361-0F63ED65E867}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{37B0248A-F291-4AE5-AE88-5956F9C8D28A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BB60B00-69B9-4378-99F4-E76DA2D2BD66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2314E27-46F1-4558-991B-F7A798DBB993}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C422506D-6F02-40C0-A022-3AD3BDBBE63B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FEF2A7A8-9C21-4679-9552-9BA68DE65696}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1AC6F38-6C0B-4192-BC67-EB3360EB6335}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5024AC9-9CB1-4056-8AA1-D79C5B4EE5BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3C4234E-3436-4584-B7AA-0173BBF28ED6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13022,7 +13022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D59C4E-8AC5-4F63-9E54-324BAC3E7F7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391D0EC9-690B-466E-B41B-3EB224AB41C8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14307,18 +14307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C336FB1-A457-41A5-8DAC-E78EA7F26660}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27B7D301-81FD-49F1-A521-CCF54593A80B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6FC2E934-86D2-44BF-B7BF-FC9C8DACD745}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2532B770-19F7-43D4-BA57-4C48D45ABD92}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F29E60AE-13E3-4FC7-944E-26ECCC492D9B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16BCA77E-DBCE-449A-B26E-F1542651BDE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5430D70B-5DDE-4662-84C3-925383816229}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C917EBFA-55CB-4BD4-9C83-F3B3CA72D399}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E99FC1D-5416-4C1D-9CD8-862DCC85F83C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D15868B4-87DD-4514-9B19-FB061EF3BD3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E63C38F5-4F2B-4DF9-AB59-3705F3625B6A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43BCC0E1-811E-43FF-B99F-6CDE05EC0C57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CBF07DA-3A74-4E85-B10F-1B449ADDC8FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DAB339D-1785-41EF-9973-58FD863C4B38}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D6D3C433-B6F4-4A73-8130-7DB4C421C78D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E3A9790-D0EA-4B33-B318-76044B51DCA3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{322F8DEE-E375-40F8-B846-A360B89646C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53A90BDE-587D-4C65-A4B9-9591174A8835}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FB69DFE-8432-4806-8FE4-C640E7A411B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A61E2D0E-8230-45B7-85FE-4E7FA8E14271}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70CA50E5-D68B-404F-A259-13D883EA54AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{38D1E369-7BB6-4AA1-9FA2-8E98BEC6B8DC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11C26C25-11EC-448B-94E8-7FE8B684F319}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B62AD5D1-28E3-456C-9F69-CE9CEDC4F223}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14331,7 +14331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEC8E1A-4CD8-46E1-8901-B72A5972C4FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A372EB47-FC45-4F5A-8566-9DDB305D8623}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15610,18 +15610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{178ED081-2C29-4C6D-B53B-69E2A4D45C33}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C693949-2CEF-4BB3-B7B0-063FE2B8AE78}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2C05B755-D89D-46E7-A416-66C28C38B18A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73D1BA44-7BF0-49F6-AB37-CB48DA0A779C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D6353E57-643F-41A7-856B-02B4E0DC8AD5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E19E706C-DB0A-4C75-AA94-84E7BB758A1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CB73A60-FA2C-45D8-831B-92DB368323F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E03AA213-1CEB-4FA0-9AD7-D68EB03C17F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED564803-A00C-454C-B4EE-7BC6794F37A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB8786EC-12A0-4D31-863E-107C40A0155D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BE2485C-BD25-49EE-8C48-036F4940D0D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E090405-5398-4BA7-A9C3-28B9436E5427}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADC10614-F75B-4C71-9C86-5FC1B96DE9B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{119EEBC4-E2A9-436F-892E-ADEFCF9C3C3B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3958C056-3A50-4200-AF13-BDAAE67EA8EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7D02AA7E-DF80-4A09-98A7-4CB795D4B345}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{68D3DDCF-FB63-4594-B626-3E0E54B9C885}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35D509C5-627E-4817-A119-E52F2C4F5CEB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F20632C6-FA71-47F1-8076-E6C4C40FA464}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F071A26B-28F7-4B54-B6D1-5D5C631BBB84}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8F34CC4-5B66-4618-AAB4-045AFEBC90E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2EFF7A2-48F1-409D-832F-5948472FB664}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{676CC065-E4E4-46AC-9A9C-97CD72DA32EB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F16A73E8-32C6-44BC-AA4E-801E7A442DDC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15634,7 +15634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ADFAA6-CC3E-421F-9B44-F103B422AF10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D13B5F-03F1-4C9B-9535-D34026CB8E8B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16913,18 +16913,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37EC532A-6064-4BE7-A7E5-E97896CC8089}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACDC5389-6B66-4523-BB5A-92A4AFB9D91D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1727B89A-33A3-4173-944C-7DA046B7C15E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3EBBD26-28EF-4D43-9FAC-FE6AE4BA8A73}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FA2A201C-5E17-43F8-B53D-BE732A896FFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E042C18A-BC62-4C6D-A997-2142521B70B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67794872-A3A1-431E-918C-2E9177FC1BBE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52A1138D-C7AF-459D-8937-B83328C9996C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A42C3F75-E530-42CC-BDB0-EB2A0EF5AC40}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{334F8400-C105-4B67-9D5B-4D878D2087BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC8CF22A-4C33-4A5C-83CF-8EF6E36BCB28}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61D1A2B8-2C96-41D8-8CDD-C8E5205E3BA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{561E5872-8C5F-42DB-A726-0F94DDB68868}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E650217E-CAA9-4021-B419-8CF4D96C217A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F59BF6CC-08FB-4AFA-96FD-3F37F6D3D444}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06CA4EED-B105-41D3-B7D2-694576E8E0A2}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DD9AA643-D2A5-4269-91ED-557BB9CF7FE7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{469A500E-659D-4832-9987-BB579D0564FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8379816C-679F-4527-A7A7-AB861565B800}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6CD36B0-995F-4383-9B29-EAB58CE1DFD1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99019095-DB3C-4245-A531-1FA368E8EAE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF914E7A-D008-4659-85DC-731B251F7789}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{680D96FF-796B-4F1B-A5E1-44B12D6BEF6B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B51FD2EE-E297-4CA1-8EC6-60FCC07B618B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
